--- a/data/醫療路線距離.xlsx
+++ b/data/醫療路線距離.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Desktop/AI GOOD競賽/linebot/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6116D54B-2115-0E42-A0BB-9C0ABEC9766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="醫療路線距離" sheetId="1" r:id="rId4"/>
+    <sheet name="醫療路線距離" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'醫療路線距離'!$A$1:$D$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">醫療路線距離!$A$1:$D$290</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -123,9 +133,6 @@
     <t>喜想生機企業社</t>
   </si>
   <si>
-    <t>飲果樂茶飲料專賣店</t>
-  </si>
-  <si>
     <t>統健實業股份有限公司天母門市</t>
   </si>
   <si>
@@ -136,22 +143,35 @@
   </si>
   <si>
     <t>台灣銀谷有限公司天母店</t>
+  </si>
+  <si>
+    <t>飲果樂茶飲專賣店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,36 +180,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -379,23 +406,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:A143"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="39.38"/>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -417,7 +450,7 @@
         <v>121.327553826539</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -425,10 +458,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>322.254519305796</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>322.25451930579601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -436,10 +469,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>472.217167923899</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>472.21716792389901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -450,7 +483,7 @@
         <v>166.343418642101</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -458,10 +491,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>429.153482133369</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>429.15348213336898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,10 +502,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>562.47279501017</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>562.47279501016999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,10 +513,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>439.474255728751</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>439.47425572875102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,10 +524,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>537.699635436948</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>537.69963543694803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,10 +535,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>528.338439463806</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>528.33843946380603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,18 +549,18 @@
         <v>193.621246625688</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
-        <v>345.8999830423</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>345.89998304229999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -538,7 +571,7 @@
         <v>110.547464600997</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,10 +579,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>88.52757245616</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>88.527572456160001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,7 +593,7 @@
         <v>313.382634795505</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -568,10 +601,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>92.4528910251935</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>92.452891025193495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,10 +612,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>537.168562166999</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>537.16856216699898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -590,10 +623,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>116.580458529478</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>116.58045852947799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,10 +634,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="1">
-        <v>81.9029109524978</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>81.902910952497805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -612,10 +645,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>71.4226712824961</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>71.422671282496097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -623,10 +656,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>432.068406208359</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>432.06840620835902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,7 +670,7 @@
         <v>286.036548158301</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -645,10 +678,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="1">
-        <v>169.60481568827</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>169.60481568827001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,10 +689,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>205.941828485443</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>205.94182848544301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,7 +703,7 @@
         <v>205.956540940308</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -678,10 +711,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="1">
-        <v>128.038294165462</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>128.03829416546199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,10 +722,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>411.984539510401</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>411.98453951040102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -700,10 +733,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="1">
-        <v>298.494542310306</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>298.49454231030597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,10 +744,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>283.98834073596</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>283.98834073595998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,10 +755,10 @@
         <v>32</v>
       </c>
       <c r="C30" s="1">
-        <v>155.139645426438</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>155.13964542643799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,10 +766,10 @@
         <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>478.502133131353</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>478.50213313135299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,10 +777,10 @@
         <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>247.274247928567</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>247.27424792856701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,10 +788,10 @@
         <v>35</v>
       </c>
       <c r="C33" s="1">
-        <v>411.984539510401</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>411.98453951040102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +802,7 @@
         <v>210.382737820015</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="1">
-        <v>352.998037649324</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>352.99803764932398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>83.8314117166089</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>83.831411716608898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>318.001062583216</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>318.00106258321603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,10 +843,10 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>442.934531522537</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>442.93453152253699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="1">
-        <v>319.652075565657</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>319.65207556565701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,10 +865,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="1">
-        <v>420.848083227182</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>420.84808322718197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,10 +876,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="1">
-        <v>412.313481795645</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>412.31348179564498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,21 +887,21 @@
         <v>13</v>
       </c>
       <c r="C42" s="1">
-        <v>99.1333333087499</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>99.133333308749897</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>237.721732903303</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>237.72173290330301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -876,10 +909,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="1">
-        <v>94.7098048763133</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>94.709804876313299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="C45" s="1">
-        <v>93.094626044937</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>93.094626044937002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,10 +931,10 @@
         <v>17</v>
       </c>
       <c r="C46" s="1">
-        <v>422.140154975994</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>422.14015497599399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,10 +942,10 @@
         <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>212.136983974785</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>212.13698397478501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -920,10 +953,10 @@
         <v>19</v>
       </c>
       <c r="C48" s="1">
-        <v>418.302473363424</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>418.30247336342399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,10 +964,10 @@
         <v>20</v>
       </c>
       <c r="C49" s="1">
-        <v>9.58924653051717</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>9.5892465305171708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,10 +975,10 @@
         <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>39.918722672616</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>39.918722672615999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -956,7 +989,7 @@
         <v>55.1694183222207</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -964,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="C52" s="1">
-        <v>310.751308500235</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>310.75130850023498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -975,10 +1008,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="1">
-        <v>398.757532606852</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>398.75753260685201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,10 +1019,10 @@
         <v>25</v>
       </c>
       <c r="C54" s="1">
-        <v>279.815679551276</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>279.81567955127599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1033,7 @@
         <v>101.981664284815</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -1008,10 +1041,10 @@
         <v>27</v>
       </c>
       <c r="C56" s="1">
-        <v>93.8657809197286</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>93.865780919728607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -1019,10 +1052,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="1">
-        <v>34.0377406027523</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>34.037740602752301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -1030,10 +1063,10 @@
         <v>29</v>
       </c>
       <c r="C58" s="1">
-        <v>295.921659583033</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>295.92165958303298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1077,7 @@
         <v>185.017146228532</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -1052,10 +1085,10 @@
         <v>31</v>
       </c>
       <c r="C60" s="1">
-        <v>395.552966707094</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>395.55296670709401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,10 +1096,10 @@
         <v>32</v>
       </c>
       <c r="C61" s="1">
-        <v>265.346195072785</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>265.34619507278501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -1074,10 +1107,10 @@
         <v>33</v>
       </c>
       <c r="C62" s="1">
-        <v>361.301864261515</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>361.30186426151499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -1085,10 +1118,10 @@
         <v>34</v>
       </c>
       <c r="C63" s="1">
-        <v>142.565271946956</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>142.56527194695599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -1096,10 +1129,10 @@
         <v>35</v>
       </c>
       <c r="C64" s="1">
-        <v>295.921659583033</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>295.92165958303298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -1107,10 +1140,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="1">
-        <v>161.757626174859</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>161.75762617485901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -1118,10 +1151,10 @@
         <v>7</v>
       </c>
       <c r="C66" s="1">
-        <v>161.755706810439</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>161.75570681043899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -1129,10 +1162,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="1">
-        <v>107.679549298291</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>107.67954929829099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -1140,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="C68" s="1">
-        <v>250.175901247104</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>250.17590124710401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1187,7 @@
         <v>135.795854832987</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -1162,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C70" s="1">
-        <v>217.782716579515</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>217.78271657951501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -1173,10 +1206,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="1">
-        <v>207.358390887293</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>207.35839088729301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>226.141772891366</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -1195,10 +1228,10 @@
         <v>14</v>
       </c>
       <c r="C73" s="1">
-        <v>32.3657099564191</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>32.365709956419103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1242,7 @@
         <v>232.885693486984</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -1217,10 +1250,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="1">
-        <v>251.137220095497</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>251.13722009549701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -1228,10 +1261,10 @@
         <v>17</v>
       </c>
       <c r="C76" s="1">
-        <v>631.725746647637</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>631.72574664763704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -1239,10 +1272,10 @@
         <v>18</v>
       </c>
       <c r="C77" s="1">
-        <v>414.549748143085</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>414.54974814308503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -1250,10 +1283,10 @@
         <v>19</v>
       </c>
       <c r="C78" s="1">
-        <v>222.545956572435</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>222.54595657243499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -1261,10 +1294,10 @@
         <v>20</v>
       </c>
       <c r="C79" s="1">
-        <v>211.129607691946</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>211.12960769194601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,10 +1305,10 @@
         <v>21</v>
       </c>
       <c r="C80" s="1">
-        <v>243.846668380477</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>243.84666838047701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -1283,10 +1316,10 @@
         <v>22</v>
       </c>
       <c r="C81" s="1">
-        <v>251.016036161537</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>251.01603616153699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1330,7 @@
         <v>157.98786176975</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -1305,10 +1338,10 @@
         <v>24</v>
       </c>
       <c r="C83" s="1">
-        <v>606.926741360737</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>606.92674136073697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -1316,10 +1349,10 @@
         <v>25</v>
       </c>
       <c r="C84" s="1">
-        <v>488.503705147179</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>488.50370514717901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1363,7 @@
         <v>116.899003271418</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>117.291431316695</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -1349,10 +1382,10 @@
         <v>28</v>
       </c>
       <c r="C87" s="1">
-        <v>194.462570762069</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>194.46257076206899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -1360,10 +1393,10 @@
         <v>29</v>
       </c>
       <c r="C88" s="1">
-        <v>93.0397390362162</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>93.039739036216204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -1371,10 +1404,10 @@
         <v>30</v>
       </c>
       <c r="C89" s="1">
-        <v>26.1997795088225</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>26.199779508822498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -1382,10 +1415,10 @@
         <v>31</v>
       </c>
       <c r="C90" s="1">
-        <v>604.20718978183</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>604.20718978183004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -1393,10 +1426,10 @@
         <v>32</v>
       </c>
       <c r="C91" s="1">
-        <v>473.944739708005</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>473.94473970800499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -1404,10 +1437,10 @@
         <v>33</v>
       </c>
       <c r="C92" s="1">
-        <v>160.211803563207</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>160.21180356320701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -1415,10 +1448,10 @@
         <v>34</v>
       </c>
       <c r="C93" s="1">
-        <v>77.6393165909678</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>77.639316590967795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -1426,10 +1459,10 @@
         <v>35</v>
       </c>
       <c r="C94" s="1">
-        <v>93.0397390362162</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>93.039739036216204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -1437,10 +1470,10 @@
         <v>8</v>
       </c>
       <c r="C95" s="1">
-        <v>265.906101766926</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>265.90610176692599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -1448,10 +1481,10 @@
         <v>9</v>
       </c>
       <c r="C96" s="1">
-        <v>410.253786740411</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>410.25378674041099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -1459,10 +1492,10 @@
         <v>10</v>
       </c>
       <c r="C97" s="1">
-        <v>290.570921781422</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>290.57092178142199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +1506,7 @@
         <v>379.538242061039</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1517,7 @@
         <v>369.002514085526</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -1492,10 +1525,10 @@
         <v>13</v>
       </c>
       <c r="C100" s="1">
-        <v>166.300270122251</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>166.30027012225099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1539,7 @@
         <v>181.852799529723</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -1514,10 +1547,10 @@
         <v>15</v>
       </c>
       <c r="C102" s="1">
-        <v>71.6966585760439</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>71.696658576043902</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -1525,10 +1558,10 @@
         <v>16</v>
       </c>
       <c r="C103" s="1">
-        <v>89.3900779176092</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>89.390077917609204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -1536,10 +1569,10 @@
         <v>17</v>
       </c>
       <c r="C104" s="1">
-        <v>479.65706614493</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>479.65706614493001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -1547,10 +1580,10 @@
         <v>18</v>
       </c>
       <c r="C105" s="1">
-        <v>256.903109148013</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>256.90310914801302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -1558,10 +1591,10 @@
         <v>19</v>
       </c>
       <c r="C106" s="1">
-        <v>383.258937535286</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>383.25893753528601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -1569,10 +1602,10 @@
         <v>20</v>
       </c>
       <c r="C107" s="1">
-        <v>77.8210493331169</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>77.821049333116903</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -1580,10 +1613,10 @@
         <v>21</v>
       </c>
       <c r="C108" s="1">
-        <v>98.6341355341286</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>98.634135534128603</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -1591,10 +1624,10 @@
         <v>22</v>
       </c>
       <c r="C109" s="1">
-        <v>98.7279866607785</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>98.727986660778498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -1602,10 +1635,10 @@
         <v>23</v>
       </c>
       <c r="C110" s="1">
-        <v>296.068196341307</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>296.06819634130699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1649,7 @@
         <v>452.236895875512</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -1624,10 +1657,10 @@
         <v>25</v>
       </c>
       <c r="C112" s="1">
-        <v>335.799192588561</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>335.79919258856103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1671,7 @@
         <v>47.4108749586226</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -1646,10 +1679,10 @@
         <v>27</v>
       </c>
       <c r="C114" s="1">
-        <v>60.1991192806454</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>60.199119280645398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -1657,10 +1690,10 @@
         <v>28</v>
       </c>
       <c r="C115" s="1">
-        <v>51.3191094807478</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>51.319109480747798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -1668,10 +1701,10 @@
         <v>29</v>
       </c>
       <c r="C116" s="1">
-        <v>254.427542232292</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>254.42754223229201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -1679,10 +1712,10 @@
         <v>30</v>
       </c>
       <c r="C117" s="1">
-        <v>141.068872615203</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>141.06887261520299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -1690,10 +1723,10 @@
         <v>31</v>
       </c>
       <c r="C118" s="1">
-        <v>450.306135433935</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>450.30613543393503</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -1701,10 +1734,10 @@
         <v>32</v>
       </c>
       <c r="C119" s="1">
-        <v>321.283423447807</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>321.28342344780702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -1712,10 +1745,10 @@
         <v>33</v>
       </c>
       <c r="C120" s="1">
-        <v>321.705126568036</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>321.70512656803601</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -1723,10 +1756,10 @@
         <v>34</v>
       </c>
       <c r="C121" s="1">
-        <v>84.2208220712371</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>84.220822071237095</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -1734,12 +1767,12 @@
         <v>35</v>
       </c>
       <c r="C122" s="1">
-        <v>254.427542232292</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>254.42754223229201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>15</v>
@@ -1748,86 +1781,86 @@
         <v>251.255213297994</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="1">
-        <v>270.730387468642</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>270.73038746864199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="1">
-        <v>657.288037081939</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>657.28803708193902</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C126" s="1">
-        <v>437.713296271729</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>437.71329627172901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C127" s="1">
-        <v>210.665023212695</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>210.66502321269499</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="1">
-        <v>237.702062795349</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>237.70206279534901</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="1">
-        <v>269.393115068242</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>269.39311506824203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="1">
-        <v>275.230998870368</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>275.23099887036801</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>23</v>
@@ -1836,53 +1869,53 @@
         <v>166.872944851227</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C132" s="1">
-        <v>631.574501318971</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>631.57450131897099</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C133" s="1">
-        <v>513.668001532403</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>513.66800153240297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C134" s="1">
-        <v>140.06834275341</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>140.06834275341001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C135" s="1">
-        <v>143.88195007352</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>143.88195007351999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>28</v>
@@ -1891,53 +1924,53 @@
         <v>219.186096733309</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C137" s="1">
-        <v>83.1357296995653</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>83.135729699565303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="1">
-        <v>57.5889815607985</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>57.588981560798501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C139" s="1">
-        <v>629.138601396218</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>629.13860139621795</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C140" s="1">
-        <v>499.094286103323</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>499.09428610332299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>33</v>
@@ -1946,9 +1979,9 @@
         <v>147.056262026273</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>34</v>
@@ -1957,18 +1990,18 @@
         <v>98.6373325340505</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C143" s="1">
-        <v>83.1357296995653</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>83.135729699565303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>15</v>
       </c>
@@ -1976,10 +2009,10 @@
         <v>16</v>
       </c>
       <c r="C144" s="1">
-        <v>22.2318815237798</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>22.231881523779801</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>15</v>
       </c>
@@ -1987,10 +2020,10 @@
         <v>17</v>
       </c>
       <c r="C145" s="1">
-        <v>420.314411173967</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>420.31441117396702</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>15</v>
       </c>
@@ -1998,10 +2031,10 @@
         <v>18</v>
       </c>
       <c r="C146" s="1">
-        <v>194.413154338295</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>194.41315433829499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2045,7 @@
         <v>454.829417661707</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>15</v>
       </c>
@@ -2020,10 +2053,10 @@
         <v>20</v>
       </c>
       <c r="C148" s="1">
-        <v>85.1253729522578</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>85.125372952257806</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>15</v>
       </c>
@@ -2031,10 +2064,10 @@
         <v>21</v>
       </c>
       <c r="C149" s="1">
-        <v>77.3125287080887</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>77.312528708088706</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>15</v>
       </c>
@@ -2042,10 +2075,10 @@
         <v>22</v>
       </c>
       <c r="C150" s="1">
-        <v>64.3590904212209</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>64.359090421220898</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>15</v>
       </c>
@@ -2053,10 +2086,10 @@
         <v>23</v>
       </c>
       <c r="C151" s="1">
-        <v>366.223638587276</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>366.22363858727601</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>15</v>
       </c>
@@ -2067,7 +2100,7 @@
         <v>390.681605176679</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>15</v>
       </c>
@@ -2075,10 +2108,10 @@
         <v>25</v>
       </c>
       <c r="C153" s="1">
-        <v>277.644631364351</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>277.64463136435103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>15</v>
       </c>
@@ -2086,10 +2119,10 @@
         <v>26</v>
       </c>
       <c r="C154" s="1">
-        <v>118.876302754431</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>118.87630275443099</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>15</v>
       </c>
@@ -2097,10 +2130,10 @@
         <v>27</v>
       </c>
       <c r="C155" s="1">
-        <v>128.557168357343</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>128.55716835734299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>15</v>
       </c>
@@ -2108,10 +2141,10 @@
         <v>28</v>
       </c>
       <c r="C156" s="1">
-        <v>68.9411732951931</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>68.941173295193096</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>15</v>
       </c>
@@ -2119,10 +2152,10 @@
         <v>29</v>
       </c>
       <c r="C157" s="1">
-        <v>325.783825126096</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>325.78382512609602</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>15</v>
       </c>
@@ -2130,10 +2163,10 @@
         <v>30</v>
       </c>
       <c r="C158" s="1">
-        <v>212.718227034028</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>212.71822703402799</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>15</v>
       </c>
@@ -2141,10 +2174,10 @@
         <v>31</v>
       </c>
       <c r="C159" s="1">
-        <v>389.523670545223</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>389.52367054522301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>15</v>
       </c>
@@ -2152,10 +2185,10 @@
         <v>32</v>
       </c>
       <c r="C160" s="1">
-        <v>263.457451066152</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>263.45745106615198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2199,7 @@
         <v>393.041359669119</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>15</v>
       </c>
@@ -2174,10 +2207,10 @@
         <v>34</v>
       </c>
       <c r="C162" s="1">
-        <v>155.251030923886</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>155.25103092388599</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>15</v>
       </c>
@@ -2185,10 +2218,10 @@
         <v>35</v>
       </c>
       <c r="C163" s="1">
-        <v>325.783825126096</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>325.78382512609602</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -2196,10 +2229,10 @@
         <v>17</v>
       </c>
       <c r="C164" s="1">
-        <v>398.193015728909</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>398.19301572890902</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +2243,7 @@
         <v>172.435960331937</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
@@ -2218,10 +2251,10 @@
         <v>19</v>
       </c>
       <c r="C166" s="1">
-        <v>472.25948463648</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>472.25948463648001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -2229,10 +2262,10 @@
         <v>20</v>
       </c>
       <c r="C167" s="1">
-        <v>83.7325174021345</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>83.732517402134505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -2240,10 +2273,10 @@
         <v>21</v>
       </c>
       <c r="C168" s="1">
-        <v>67.0235216637566</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>67.023521663756597</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -2251,10 +2284,10 @@
         <v>22</v>
       </c>
       <c r="C169" s="1">
-        <v>51.0338404110101</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>51.033840411010097</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -2262,10 +2295,10 @@
         <v>23</v>
       </c>
       <c r="C170" s="1">
-        <v>380.007529626516</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>380.00752962651597</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>16</v>
       </c>
@@ -2273,10 +2306,10 @@
         <v>24</v>
       </c>
       <c r="C171" s="1">
-        <v>368.733989355127</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>368.73398935512699</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2320,7 @@
         <v>255.43453468784</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>16</v>
       </c>
@@ -2295,10 +2328,10 @@
         <v>26</v>
       </c>
       <c r="C173" s="1">
-        <v>135.450024106361</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>135.45002410636101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -2309,7 +2342,7 @@
         <v>142.713809491012</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
@@ -2317,10 +2350,10 @@
         <v>28</v>
       </c>
       <c r="C175" s="1">
-        <v>74.2227905658933</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>74.222790565893305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -2328,10 +2361,10 @@
         <v>29</v>
       </c>
       <c r="C176" s="1">
-        <v>343.706382956074</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>343.70638295607398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
@@ -2339,10 +2372,10 @@
         <v>30</v>
       </c>
       <c r="C177" s="1">
-        <v>230.040260059081</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>230.04026005908099</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
@@ -2350,10 +2383,10 @@
         <v>31</v>
       </c>
       <c r="C178" s="1">
-        <v>367.500273331984</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>367.50027333198398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2397,7 @@
         <v>241.236592806679</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
@@ -2372,10 +2405,10 @@
         <v>33</v>
       </c>
       <c r="C180" s="1">
-        <v>410.979860482836</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>410.97986048283599</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
@@ -2383,10 +2416,10 @@
         <v>34</v>
       </c>
       <c r="C181" s="1">
-        <v>173.60445394871</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>173.60445394870999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>16</v>
       </c>
@@ -2394,12 +2427,12 @@
         <v>35</v>
       </c>
       <c r="C182" s="1">
-        <v>343.706382956074</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>343.70638295607398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>18</v>
@@ -2408,9 +2441,9 @@
         <v>233.602620949211</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>19</v>
@@ -2419,9 +2452,9 @@
         <v>406.953186413514</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>20</v>
@@ -2430,42 +2463,42 @@
         <v>67.7697788284936</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C186" s="1">
-        <v>81.3173706496235</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>81.317370649623498</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C187" s="1">
-        <v>78.4468467435283</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>78.446846743528297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C188" s="1">
-        <v>317.830402511303</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>317.83040251130302</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>24</v>
@@ -2474,64 +2507,64 @@
         <v>429.267589754244</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C190" s="1">
-        <v>313.345303838968</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>313.34530383896799</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C191" s="1">
-        <v>70.4276285093245</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>70.427628509324506</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C192" s="1">
-        <v>80.3740665581496</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>80.374066558149593</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C193" s="1">
-        <v>41.7199369735954</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>41.719936973595402</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C194" s="1">
-        <v>278.257777934058</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>278.25777793405803</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>30</v>
@@ -2540,42 +2573,42 @@
         <v>164.7206390465</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C196" s="1">
-        <v>427.474245348437</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>427.47424534843702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C197" s="1">
-        <v>298.869023079564</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>298.86902307956399</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C198" s="1">
-        <v>345.534451358977</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>345.53445135897698</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>34</v>
@@ -2584,18 +2617,18 @@
         <v>108.164972166602</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C200" s="1">
-        <v>278.257777934058</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>278.25777793405803</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>20</v>
       </c>
@@ -2603,10 +2636,10 @@
         <v>21</v>
       </c>
       <c r="C201" s="1">
-        <v>34.6847845847913</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>34.684784584791302</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>20</v>
       </c>
@@ -2614,10 +2647,10 @@
         <v>22</v>
       </c>
       <c r="C202" s="1">
-        <v>48.1465661469079</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>48.146566146907901</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>20</v>
       </c>
@@ -2625,10 +2658,10 @@
         <v>23</v>
       </c>
       <c r="C203" s="1">
-        <v>315.765035238936</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>315.76503523893598</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -2639,7 +2672,7 @@
         <v>396.637858590755</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>20</v>
       </c>
@@ -2647,10 +2680,10 @@
         <v>25</v>
       </c>
       <c r="C205" s="1">
-        <v>277.84941931772</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>277.84941931771999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,10 +2691,10 @@
         <v>26</v>
       </c>
       <c r="C206" s="1">
-        <v>100.09294513202</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>100.09294513202001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>20</v>
       </c>
@@ -2669,10 +2702,10 @@
         <v>27</v>
       </c>
       <c r="C207" s="1">
-        <v>93.966975770113</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>93.966975770112995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>20</v>
       </c>
@@ -2680,10 +2713,10 @@
         <v>28</v>
       </c>
       <c r="C208" s="1">
-        <v>26.7827918388603</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>26.782791838860302</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>20</v>
       </c>
@@ -2691,10 +2724,10 @@
         <v>29</v>
       </c>
       <c r="C209" s="1">
-        <v>297.994364288613</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>297.99436428861299</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
@@ -2702,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="C210" s="1">
-        <v>186.110027307871</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>186.11002730787101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,10 +2746,10 @@
         <v>31</v>
       </c>
       <c r="C211" s="1">
-        <v>393.628307145435</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>393.62830714543497</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +2760,7 @@
         <v>263.328433821678</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>20</v>
       </c>
@@ -2735,10 +2768,10 @@
         <v>33</v>
       </c>
       <c r="C213" s="1">
-        <v>363.798512794432</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>363.79851279443199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2782,7 @@
         <v>141.322224806261</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>20</v>
       </c>
@@ -2757,10 +2790,10 @@
         <v>35</v>
       </c>
       <c r="C215" s="1">
-        <v>297.994364288613</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>297.99436428861299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>21</v>
       </c>
@@ -2768,10 +2801,10 @@
         <v>22</v>
       </c>
       <c r="C216" s="1">
-        <v>17.9307713757699</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>17.930771375769901</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>21</v>
       </c>
@@ -2782,7 +2815,7 @@
         <v>350.300425658569</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>21</v>
       </c>
@@ -2793,7 +2826,7 @@
         <v>363.173041050601</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>21</v>
       </c>
@@ -2804,7 +2837,7 @@
         <v>244.657043890061</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>21</v>
       </c>
@@ -2812,10 +2845,10 @@
         <v>26</v>
       </c>
       <c r="C220" s="1">
-        <v>129.943433818027</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>129.94343381802699</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>21</v>
       </c>
@@ -2826,7 +2859,7 @@
         <v>126.598222947694</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>21</v>
       </c>
@@ -2837,7 +2870,7 @@
         <v>50.7022057994485</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>21</v>
       </c>
@@ -2845,10 +2878,10 @@
         <v>29</v>
       </c>
       <c r="C223" s="1">
-        <v>331.84735989571</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>331.84735989570999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>21</v>
       </c>
@@ -2856,10 +2889,10 @@
         <v>30</v>
       </c>
       <c r="C224" s="1">
-        <v>219.254035684327</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>219.25403568432699</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>21</v>
       </c>
@@ -2867,10 +2900,10 @@
         <v>31</v>
       </c>
       <c r="C225" s="1">
-        <v>360.37209774858</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>360.37209774858002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>21</v>
       </c>
@@ -2878,10 +2911,10 @@
         <v>32</v>
       </c>
       <c r="C226" s="1">
-        <v>230.098430800021</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>230.09843080002099</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>21</v>
       </c>
@@ -2889,10 +2922,10 @@
         <v>33</v>
       </c>
       <c r="C227" s="1">
-        <v>397.917601376246</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>397.91760137624601</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +2936,7 @@
         <v>171.67309663216</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>21</v>
       </c>
@@ -2911,10 +2944,10 @@
         <v>35</v>
       </c>
       <c r="C229" s="1">
-        <v>331.84735989571</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>331.84735989570999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>22</v>
       </c>
@@ -2922,10 +2955,10 @@
         <v>23</v>
       </c>
       <c r="C230" s="1">
-        <v>363.134616014908</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>363.13461601490798</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>22</v>
       </c>
@@ -2936,7 +2969,7 @@
         <v>356.345359745633</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>22</v>
       </c>
@@ -2947,7 +2980,7 @@
         <v>238.63005862052</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>22</v>
       </c>
@@ -2958,7 +2991,7 @@
         <v>135.163886856489</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>22</v>
       </c>
@@ -2969,7 +3002,7 @@
         <v>134.534854152489</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>22</v>
       </c>
@@ -2977,10 +3010,10 @@
         <v>28</v>
       </c>
       <c r="C235" s="1">
-        <v>56.634293093201</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>56.634293093201002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>22</v>
       </c>
@@ -2991,7 +3024,7 @@
         <v>340.562605295114</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>22</v>
       </c>
@@ -2999,10 +3032,10 @@
         <v>30</v>
       </c>
       <c r="C237" s="1">
-        <v>227.108102835655</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>227.10810283565499</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>22</v>
       </c>
@@ -3010,10 +3043,10 @@
         <v>31</v>
       </c>
       <c r="C238" s="1">
-        <v>353.93544499874</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>353.93544499874002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>22</v>
       </c>
@@ -3021,10 +3054,10 @@
         <v>32</v>
       </c>
       <c r="C239" s="1">
-        <v>224.061314310555</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>224.06131431055499</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>22</v>
       </c>
@@ -3032,10 +3065,10 @@
         <v>33</v>
       </c>
       <c r="C240" s="1">
-        <v>407.109710376465</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>407.10971037646499</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>22</v>
       </c>
@@ -3046,7 +3079,7 @@
         <v>176.759807597638</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>22</v>
       </c>
@@ -3057,20 +3090,20 @@
         <v>340.562605295114</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C243" s="1">
-        <v>107.139293982793</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>107.13929398279301</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>27</v>
@@ -3079,75 +3112,75 @@
         <v>112.82259000338</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C245" s="1">
-        <v>44.1514857612676</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>44.151485761267601</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C246" s="1">
-        <v>315.787445215624</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>315.78744521562402</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C247" s="1">
-        <v>201.814017382871</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>201.81401738287099</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C248" s="1">
-        <v>387.712679319754</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>387.71267931975399</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C249" s="1">
-        <v>259.320362665349</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>259.32036266534902</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C250" s="1">
-        <v>382.992445040971</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>382.99244504097101</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>34</v>
@@ -3156,18 +3189,18 @@
         <v>146.753744360344</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C252" s="1">
-        <v>315.787445215624</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>315.78744521562402</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>26</v>
       </c>
@@ -3178,7 +3211,7 @@
         <v>21.5188987522342</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>26</v>
       </c>
@@ -3186,10 +3219,10 @@
         <v>28</v>
       </c>
       <c r="C254" s="1">
-        <v>79.3704342014455</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>79.370434201445505</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>26</v>
       </c>
@@ -3197,10 +3230,10 @@
         <v>29</v>
       </c>
       <c r="C255" s="1">
-        <v>208.648205156631</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>208.64820515663101</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>26</v>
       </c>
@@ -3208,10 +3241,10 @@
         <v>30</v>
       </c>
       <c r="C256" s="1">
-        <v>94.7050523333193</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>94.705052333319301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>26</v>
       </c>
@@ -3219,10 +3252,10 @@
         <v>31</v>
       </c>
       <c r="C257" s="1">
-        <v>489.086936644973</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>489.08693664497298</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>26</v>
       </c>
@@ -3230,10 +3263,10 @@
         <v>32</v>
       </c>
       <c r="C258" s="1">
-        <v>359.104175142057</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>359.10417514205699</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>26</v>
       </c>
@@ -3241,10 +3274,10 @@
         <v>33</v>
       </c>
       <c r="C259" s="1">
-        <v>275.860310715935</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>275.86031071593499</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>26</v>
       </c>
@@ -3252,10 +3285,10 @@
         <v>34</v>
       </c>
       <c r="C260" s="1">
-        <v>41.7462623791286</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>41.746262379128602</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>26</v>
       </c>
@@ -3263,67 +3296,67 @@
         <v>35</v>
       </c>
       <c r="C261" s="1">
-        <v>208.648205156631</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>208.64820515663101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C262" s="1">
-        <v>57.0752515835375</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>57.075251583537501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C263" s="1">
-        <v>128.414252542185</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>128.41425254218501</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C264" s="1">
-        <v>163.614178995585</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>163.61417899558501</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C265" s="1">
-        <v>52.7957662406271</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>52.795766240627103</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C266" s="1">
-        <v>538.042150879317</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>538.04215087931698</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>32</v>
@@ -3332,20 +3365,20 @@
         <v>408.113172932417</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C268" s="1">
-        <v>230.821372753544</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>230.82137275354401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>34</v>
@@ -3354,18 +3387,18 @@
         <v>7.36310591863728</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C270" s="1">
-        <v>163.614178995585</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>163.61417899558501</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>27</v>
       </c>
@@ -3373,10 +3406,10 @@
         <v>28</v>
       </c>
       <c r="C271" s="1">
-        <v>77.9385789242987</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>77.938578924298696</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>27</v>
       </c>
@@ -3387,7 +3420,7 @@
         <v>206.042438413486</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>27</v>
       </c>
@@ -3398,7 +3431,7 @@
         <v>92.7218751617349</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>27</v>
       </c>
@@ -3406,10 +3439,10 @@
         <v>31</v>
       </c>
       <c r="C274" s="1">
-        <v>486.968926939674</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>486.96892693967402</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>27</v>
       </c>
@@ -3417,10 +3450,10 @@
         <v>32</v>
       </c>
       <c r="C275" s="1">
-        <v>356.686706945313</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>356.68670694531301</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>27</v>
       </c>
@@ -3428,10 +3461,10 @@
         <v>33</v>
       </c>
       <c r="C276" s="1">
-        <v>272.720265156911</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>272.72026515691101</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>27</v>
       </c>
@@ -3442,7 +3475,7 @@
         <v>50.7294724593553</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3486,7 @@
         <v>206.042438413486</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>28</v>
       </c>
@@ -3461,10 +3494,10 @@
         <v>29</v>
       </c>
       <c r="C279" s="1">
-        <v>283.980972113606</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>283.98097211360601</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>28</v>
       </c>
@@ -3475,7 +3508,7 @@
         <v>170.473982088068</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>28</v>
       </c>
@@ -3483,10 +3516,10 @@
         <v>31</v>
       </c>
       <c r="C281" s="1">
-        <v>410.037731656666</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>410.03773165666598</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>28</v>
       </c>
@@ -3494,10 +3527,10 @@
         <v>32</v>
       </c>
       <c r="C282" s="1">
-        <v>279.919983744167</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>279.91998374416698</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>28</v>
       </c>
@@ -3505,10 +3538,10 @@
         <v>33</v>
       </c>
       <c r="C283" s="1">
-        <v>350.618344960266</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>350.61834496026597</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>28</v>
       </c>
@@ -3516,10 +3549,10 @@
         <v>34</v>
       </c>
       <c r="C284" s="1">
-        <v>121.116556040922</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>121.11655604092201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>28</v>
       </c>
@@ -3527,32 +3560,32 @@
         <v>35</v>
       </c>
       <c r="C285" s="1">
-        <v>283.980972113606</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>283.98097211360601</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C286" s="1">
-        <v>26.933460248798</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>26.933460248797999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C287" s="1">
-        <v>145.40187816637</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>145.40187816637001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>34</v>
       </c>
@@ -3564,7 +3597,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$290"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:D290" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/醫療路線距離.xlsx
+++ b/data/醫療路線距離.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Desktop/AI GOOD競賽/linebot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6116D54B-2115-0E42-A0BB-9C0ABEC9766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBEBCF9-4A00-CE41-AC8B-729B1F1E2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="醫療路線距離" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="41">
   <si>
     <t>商店1</t>
   </si>
@@ -416,10 +416,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:A143"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289:C575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3596,6 +3596,3163 @@
         <v>170.562519274956</v>
       </c>
     </row>
+    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="1">
+        <v>121.327553826539</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="1">
+        <v>322.25451930579601</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="1">
+        <v>472.21716792389901</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="1">
+        <v>166.343418642101</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="1">
+        <v>429.15348213336898</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="1">
+        <v>562.47279501016999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" s="1">
+        <v>439.47425572875102</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="1">
+        <v>537.69963543694803</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="1">
+        <v>528.33843946380603</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="1">
+        <v>193.621246625688</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="1">
+        <v>345.89998304229999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" s="1">
+        <v>110.547464600997</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="1">
+        <v>88.527572456160001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="1">
+        <v>313.382634795505</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" s="1">
+        <v>92.452891025193495</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="1">
+        <v>537.16856216699898</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="1">
+        <v>116.58045852947799</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="1">
+        <v>81.902910952497805</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307" s="1">
+        <v>71.422671282496097</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="1">
+        <v>432.06840620835902</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="1">
+        <v>286.036548158301</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="1">
+        <v>169.60481568827001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="1">
+        <v>205.94182848544301</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="1">
+        <v>205.956540940308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" s="1">
+        <v>128.03829416546199</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="1">
+        <v>411.98453951040102</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315" s="1">
+        <v>298.49454231030597</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="1">
+        <v>283.98834073595998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317" s="1">
+        <v>155.13964542643799</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318" s="1">
+        <v>478.50213313135299</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" s="1">
+        <v>247.27424792856701</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="1">
+        <v>411.98453951040102</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="1">
+        <v>210.382737820015</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="1">
+        <v>352.99803764932398</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="1">
+        <v>83.831411716608898</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="1">
+        <v>318.00106258321603</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="1">
+        <v>442.93453152253699</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="1">
+        <v>319.65207556565701</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="1">
+        <v>420.84808322718197</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="1">
+        <v>412.31348179564498</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="1">
+        <v>99.133333308749897</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" s="1">
+        <v>237.72173290330301</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="1">
+        <v>94.709804876313299</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="1">
+        <v>93.094626044937002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="1">
+        <v>422.14015497599399</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" s="1">
+        <v>212.13698397478501</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="1">
+        <v>418.30247336342399</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="1">
+        <v>9.5892465305171708</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" s="1">
+        <v>39.918722672615999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="1">
+        <v>55.1694183222207</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="1">
+        <v>310.75130850023498</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="1">
+        <v>398.75753260685201</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" s="1">
+        <v>279.81567955127599</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="1">
+        <v>101.981664284815</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="1">
+        <v>93.865780919728607</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="1">
+        <v>34.037740602752301</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="1">
+        <v>295.92165958303298</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="1">
+        <v>185.017146228532</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="1">
+        <v>395.55296670709401</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1">
+        <v>265.34619507278501</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="1">
+        <v>361.30186426151499</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="1">
+        <v>142.56527194695599</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="1">
+        <v>295.92165958303298</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" s="1">
+        <v>161.75762617485901</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" s="1">
+        <v>161.75570681043899</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" s="1">
+        <v>107.67954929829099</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" s="1">
+        <v>250.17590124710401</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" s="1">
+        <v>135.795854832987</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" s="1">
+        <v>217.78271657951501</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" s="1">
+        <v>207.35839088729301</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" s="1">
+        <v>226.141772891366</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" s="1">
+        <v>32.365709956419103</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" s="1">
+        <v>232.885693486984</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" s="1">
+        <v>251.13722009549701</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" s="1">
+        <v>631.72574664763704</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" s="1">
+        <v>414.54974814308503</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" s="1">
+        <v>222.54595657243499</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" s="1">
+        <v>211.12960769194601</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" s="1">
+        <v>243.84666838047701</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" s="1">
+        <v>251.01603616153699</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" s="1">
+        <v>157.98786176975</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" s="1">
+        <v>606.92674136073697</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" s="1">
+        <v>488.50370514717901</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" s="1">
+        <v>116.899003271418</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" s="1">
+        <v>117.291431316695</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" s="1">
+        <v>194.46257076206899</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" s="1">
+        <v>93.039739036216204</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" s="1">
+        <v>26.199779508822498</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" s="1">
+        <v>604.20718978183004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" s="1">
+        <v>473.94473970800499</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" s="1">
+        <v>160.21180356320701</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" s="1">
+        <v>77.639316590967795</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" s="1">
+        <v>93.039739036216204</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" s="1">
+        <v>265.90610176692599</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" s="1">
+        <v>410.25378674041099</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" s="1">
+        <v>290.57092178142199</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" s="1">
+        <v>379.538242061039</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" s="1">
+        <v>369.002514085526</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" s="1">
+        <v>166.30027012225099</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" s="1">
+        <v>181.852799529723</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" s="1">
+        <v>71.696658576043902</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" s="1">
+        <v>89.390077917609204</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" s="1">
+        <v>479.65706614493001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" s="1">
+        <v>256.90310914801302</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" s="1">
+        <v>383.25893753528601</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" s="1">
+        <v>77.821049333116903</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" s="1">
+        <v>98.634135534128603</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" s="1">
+        <v>98.727986660778498</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" s="1">
+        <v>296.06819634130699</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398" s="1">
+        <v>452.236895875512</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" s="1">
+        <v>335.79919258856103</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" s="1">
+        <v>47.4108749586226</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" s="1">
+        <v>60.199119280645398</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" s="1">
+        <v>51.319109480747798</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403" s="1">
+        <v>254.42754223229201</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C404" s="1">
+        <v>141.06887261520299</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405" s="1">
+        <v>450.30613543393503</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" s="1">
+        <v>321.28342344780702</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" s="1">
+        <v>321.70512656803601</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408" s="1">
+        <v>84.220822071237095</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" s="1">
+        <v>254.42754223229201</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C410" s="1">
+        <v>251.255213297994</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C411" s="1">
+        <v>270.73038746864199</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C412" s="1">
+        <v>657.28803708193902</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C413" s="1">
+        <v>437.71329627172901</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C414" s="1">
+        <v>210.66502321269499</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C415" s="1">
+        <v>237.70206279534901</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C416" s="1">
+        <v>269.39311506824203</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C417" s="1">
+        <v>275.23099887036801</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C418" s="1">
+        <v>166.872944851227</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C419" s="1">
+        <v>631.57450131897099</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C420" s="1">
+        <v>513.66800153240297</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C421" s="1">
+        <v>140.06834275341001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C422" s="1">
+        <v>143.88195007351999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C423" s="1">
+        <v>219.186096733309</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C424" s="1">
+        <v>83.135729699565303</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C425" s="1">
+        <v>57.588981560798501</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C426" s="1">
+        <v>629.13860139621795</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C427" s="1">
+        <v>499.09428610332299</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C428" s="1">
+        <v>147.056262026273</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C429" s="1">
+        <v>98.6373325340505</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C430" s="1">
+        <v>83.135729699565303</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C431" s="1">
+        <v>22.231881523779801</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C432" s="1">
+        <v>420.31441117396702</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C433" s="1">
+        <v>194.41315433829499</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C434" s="1">
+        <v>454.829417661707</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C435" s="1">
+        <v>85.125372952257806</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C436" s="1">
+        <v>77.312528708088706</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C437" s="1">
+        <v>64.359090421220898</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C438" s="1">
+        <v>366.22363858727601</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C439" s="1">
+        <v>390.681605176679</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C440" s="1">
+        <v>277.64463136435103</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C441" s="1">
+        <v>118.87630275443099</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C442" s="1">
+        <v>128.55716835734299</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C443" s="1">
+        <v>68.941173295193096</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C444" s="1">
+        <v>325.78382512609602</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C445" s="1">
+        <v>212.71822703402799</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C446" s="1">
+        <v>389.52367054522301</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C447" s="1">
+        <v>263.45745106615198</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C448" s="1">
+        <v>393.041359669119</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C449" s="1">
+        <v>155.25103092388599</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C450" s="1">
+        <v>325.78382512609602</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C451" s="1">
+        <v>398.19301572890902</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C452" s="1">
+        <v>172.435960331937</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C453" s="1">
+        <v>472.25948463648001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454" s="1">
+        <v>83.732517402134505</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C455" s="1">
+        <v>67.023521663756597</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C456" s="1">
+        <v>51.033840411010097</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C457" s="1">
+        <v>380.00752962651597</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C458" s="1">
+        <v>368.73398935512699</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C459" s="1">
+        <v>255.43453468784</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C460" s="1">
+        <v>135.45002410636101</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C461" s="1">
+        <v>142.713809491012</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C462" s="1">
+        <v>74.222790565893305</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C463" s="1">
+        <v>343.70638295607398</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C464" s="1">
+        <v>230.04026005908099</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C465" s="1">
+        <v>367.50027333198398</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C466" s="1">
+        <v>241.236592806679</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C467" s="1">
+        <v>410.97986048283599</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C468" s="1">
+        <v>173.60445394870999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C469" s="1">
+        <v>343.70638295607398</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C470" s="1">
+        <v>233.602620949211</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C471" s="1">
+        <v>406.953186413514</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C472" s="1">
+        <v>67.7697788284936</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C473" s="1">
+        <v>81.317370649623498</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C474" s="1">
+        <v>78.446846743528297</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C475" s="1">
+        <v>317.83040251130302</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C476" s="1">
+        <v>429.267589754244</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C477" s="1">
+        <v>313.34530383896799</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C478" s="1">
+        <v>70.427628509324506</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C479" s="1">
+        <v>80.374066558149593</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C480" s="1">
+        <v>41.719936973595402</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C481" s="1">
+        <v>278.25777793405803</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C482" s="1">
+        <v>164.7206390465</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C483" s="1">
+        <v>427.47424534843702</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C484" s="1">
+        <v>298.86902307956399</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C485" s="1">
+        <v>345.53445135897698</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C486" s="1">
+        <v>108.164972166602</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C487" s="1">
+        <v>278.25777793405803</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C488" s="1">
+        <v>34.684784584791302</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C489" s="1">
+        <v>48.146566146907901</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C490" s="1">
+        <v>315.76503523893598</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C491" s="1">
+        <v>396.637858590755</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C492" s="1">
+        <v>277.84941931771999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C493" s="1">
+        <v>100.09294513202001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C494" s="1">
+        <v>93.966975770112995</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C495" s="1">
+        <v>26.782791838860302</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C496" s="1">
+        <v>297.99436428861299</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C497" s="1">
+        <v>186.11002730787101</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C498" s="1">
+        <v>393.62830714543497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499" s="1">
+        <v>263.328433821678</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C500" s="1">
+        <v>363.79851279443199</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C501" s="1">
+        <v>141.322224806261</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C502" s="1">
+        <v>297.99436428861299</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C503" s="1">
+        <v>17.930771375769901</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C504" s="1">
+        <v>350.300425658569</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505" s="1">
+        <v>363.173041050601</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C506" s="1">
+        <v>244.657043890061</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C507" s="1">
+        <v>129.94343381802699</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C508" s="1">
+        <v>126.598222947694</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C509" s="1">
+        <v>50.7022057994485</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C510" s="1">
+        <v>331.84735989570999</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C511" s="1">
+        <v>219.25403568432699</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C512" s="1">
+        <v>360.37209774858002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C513" s="1">
+        <v>230.09843080002099</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C514" s="1">
+        <v>397.91760137624601</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C515" s="1">
+        <v>171.67309663216</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C516" s="1">
+        <v>331.84735989570999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C517" s="1">
+        <v>363.13461601490798</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C518" s="1">
+        <v>356.345359745633</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C519" s="1">
+        <v>238.63005862052</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C520" s="1">
+        <v>135.163886856489</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C521" s="1">
+        <v>134.534854152489</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C522" s="1">
+        <v>56.634293093201002</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C523" s="1">
+        <v>340.562605295114</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C524" s="1">
+        <v>227.10810283565499</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C525" s="1">
+        <v>353.93544499874002</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C526" s="1">
+        <v>224.06131431055499</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C527" s="1">
+        <v>407.10971037646499</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C528" s="1">
+        <v>176.759807597638</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C529" s="1">
+        <v>340.562605295114</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C530" s="1">
+        <v>107.13929398279301</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C531" s="1">
+        <v>112.82259000338</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C532" s="1">
+        <v>44.151485761267601</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C533" s="1">
+        <v>315.78744521562402</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C534" s="1">
+        <v>201.81401738287099</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C535" s="1">
+        <v>387.71267931975399</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C536" s="1">
+        <v>259.32036266534902</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C537" s="1">
+        <v>382.99244504097101</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C538" s="1">
+        <v>146.753744360344</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C539" s="1">
+        <v>315.78744521562402</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C540" s="1">
+        <v>21.5188987522342</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C541" s="1">
+        <v>79.370434201445505</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C542" s="1">
+        <v>208.64820515663101</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C543" s="1">
+        <v>94.705052333319301</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C544" s="1">
+        <v>489.08693664497298</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C545" s="1">
+        <v>359.10417514205699</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C546" s="1">
+        <v>275.86031071593499</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C547" s="1">
+        <v>41.746262379128602</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C548" s="1">
+        <v>208.64820515663101</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C549" s="1">
+        <v>57.075251583537501</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C550" s="1">
+        <v>128.41425254218501</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C551" s="1">
+        <v>163.61417899558501</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C552" s="1">
+        <v>52.795766240627103</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C553" s="1">
+        <v>538.04215087931698</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C554" s="1">
+        <v>408.113172932417</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C555" s="1">
+        <v>230.82137275354401</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C556" s="1">
+        <v>7.36310591863728</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C557" s="1">
+        <v>163.61417899558501</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C558" s="1">
+        <v>77.938578924298696</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C559" s="1">
+        <v>206.042438413486</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C560" s="1">
+        <v>92.7218751617349</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C561" s="1">
+        <v>486.96892693967402</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C562" s="1">
+        <v>356.68670694531301</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C563" s="1">
+        <v>272.72026515691101</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C564" s="1">
+        <v>50.7294724593553</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C565" s="1">
+        <v>206.042438413486</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C566" s="1">
+        <v>283.98097211360601</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C567" s="1">
+        <v>170.473982088068</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C568" s="1">
+        <v>410.03773165666598</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C569" s="1">
+        <v>279.91998374416698</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C570" s="1">
+        <v>350.61834496026597</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C571" s="1">
+        <v>121.11655604092201</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C572" s="1">
+        <v>283.98097211360601</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C573" s="1">
+        <v>26.933460248797999</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C574" s="1">
+        <v>145.40187816637001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C575" s="1">
+        <v>170.562519274956</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D290" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
